--- a/data/trans_orig/P1806_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1806_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>18161</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11535</v>
+        <v>11659</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28234</v>
+        <v>30632</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.03298348908258342</v>
+        <v>0.03298348908258341</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02094940392521774</v>
+        <v>0.02117527075831271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0512763179077429</v>
+        <v>0.05563242467972741</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -762,19 +762,19 @@
         <v>27306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20284</v>
+        <v>19057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37345</v>
+        <v>37312</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05590821209036926</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04153023058050089</v>
+        <v>0.03901800340841005</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07646141096796016</v>
+        <v>0.0763940369258353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>61</v>
@@ -783,19 +783,19 @@
         <v>45467</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34175</v>
+        <v>35264</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59195</v>
+        <v>59601</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0437595912252623</v>
+        <v>0.04375959122526229</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03289144277837849</v>
+        <v>0.03393974586724695</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05697163956707613</v>
+        <v>0.05736250028357314</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>532457</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>522384</v>
+        <v>519986</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>539083</v>
+        <v>538959</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9670165109174166</v>
+        <v>0.9670165109174164</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9487236820922571</v>
+        <v>0.9443675753202727</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9790505960747821</v>
+        <v>0.9788247292416872</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>645</v>
@@ -833,19 +833,19 @@
         <v>461105</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>451066</v>
+        <v>451099</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>468127</v>
+        <v>469354</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9440917879096309</v>
+        <v>0.9440917879096308</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9235385890320391</v>
+        <v>0.9236059630741646</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9584697694194989</v>
+        <v>0.9609819965915902</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1179</v>
@@ -854,19 +854,19 @@
         <v>993562</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>979834</v>
+        <v>979428</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1004854</v>
+        <v>1003765</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9562404087747378</v>
+        <v>0.9562404087747377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9430283604329239</v>
+        <v>0.9426374997164266</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9671085572216217</v>
+        <v>0.966060254132753</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>16400</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9928</v>
+        <v>10221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25211</v>
+        <v>24873</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03393913542704109</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02054524981747496</v>
+        <v>0.02115295274597902</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05217347533266434</v>
+        <v>0.05147392635075884</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -979,19 +979,19 @@
         <v>31022</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23399</v>
+        <v>22807</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42086</v>
+        <v>41397</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07331420445647502</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05529819579384567</v>
+        <v>0.05389868876882596</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09946133111703287</v>
+        <v>0.09783169589453582</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -1000,19 +1000,19 @@
         <v>47422</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35325</v>
+        <v>37117</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58750</v>
+        <v>60494</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05232186523070891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03897521505409748</v>
+        <v>0.04095152618005543</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06482044602832936</v>
+        <v>0.06674377829556663</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>466812</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458001</v>
+        <v>458339</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>473284</v>
+        <v>472991</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9660608645729589</v>
+        <v>0.9660608645729588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9478265246673357</v>
+        <v>0.9485260736492411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9794547501825249</v>
+        <v>0.9788470472540211</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>545</v>
@@ -1050,19 +1050,19 @@
         <v>392121</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>381057</v>
+        <v>381746</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>399744</v>
+        <v>400336</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.926685795543525</v>
+        <v>0.9266857955435249</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9005386688829679</v>
+        <v>0.9021683041054642</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9447018042061543</v>
+        <v>0.9461013112311742</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1006</v>
@@ -1071,19 +1071,19 @@
         <v>858933</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>847605</v>
+        <v>845861</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>871030</v>
+        <v>869238</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9476781347692911</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9351795539716707</v>
+        <v>0.9332562217044336</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9610247849459025</v>
+        <v>0.9590484738199447</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>6094</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2267</v>
+        <v>2462</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11344</v>
+        <v>11663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01292246281883771</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004806015431270278</v>
+        <v>0.005220704717003655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02405382526971921</v>
+        <v>0.02473047317394572</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -1196,19 +1196,19 @@
         <v>14097</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9392</v>
+        <v>8894</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21103</v>
+        <v>20615</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07518523535895352</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05009292920002629</v>
+        <v>0.04743759255993189</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1125488489403789</v>
+        <v>0.1099503341629866</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -1217,19 +1217,19 @@
         <v>20191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13552</v>
+        <v>14410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28381</v>
+        <v>28535</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03063440546408081</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02056165760785712</v>
+        <v>0.02186228612314363</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04305898890123706</v>
+        <v>0.04329275613516978</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>465518</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>460268</v>
+        <v>459949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>469345</v>
+        <v>469150</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9870775371811624</v>
+        <v>0.9870775371811623</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9759461747302809</v>
+        <v>0.9752695268260543</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9951939845687297</v>
+        <v>0.9947792952829962</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -1267,19 +1267,19 @@
         <v>173400</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>166394</v>
+        <v>166882</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>178105</v>
+        <v>178603</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9248147646410465</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8874511510596209</v>
+        <v>0.8900496658370136</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9499070707999736</v>
+        <v>0.9525624074400683</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>746</v>
@@ -1288,19 +1288,19 @@
         <v>638918</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>630728</v>
+        <v>630574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>645557</v>
+        <v>644699</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9693655945359193</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9569410110987633</v>
+        <v>0.9567072438648306</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9794383423921431</v>
+        <v>0.9781377138768564</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>24619</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16789</v>
+        <v>16402</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>38271</v>
+        <v>36335</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02175105081864952</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01483308870459971</v>
+        <v>0.01449132126934761</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03381309597822418</v>
+        <v>0.03210222270761776</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -1413,19 +1413,19 @@
         <v>41555</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>32902</v>
+        <v>32868</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52998</v>
+        <v>54314</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04828563713381737</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03823081856642093</v>
+        <v>0.03819129481390311</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06158123657638276</v>
+        <v>0.06311034681437408</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -1434,19 +1434,19 @@
         <v>66174</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52806</v>
+        <v>53112</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83644</v>
+        <v>81888</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0332123063022932</v>
+        <v>0.03321230630229321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02650279706587663</v>
+        <v>0.02665629502382417</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04198016310645913</v>
+        <v>0.04109874812901883</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1107224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1093572</v>
+        <v>1095508</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1115054</v>
+        <v>1115441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9782489491813505</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9661869040217769</v>
+        <v>0.9678977772923819</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9851669112954008</v>
+        <v>0.9855086787306521</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1164</v>
@@ -1484,19 +1484,19 @@
         <v>819060</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>807617</v>
+        <v>806301</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>827713</v>
+        <v>827747</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9517143628661828</v>
+        <v>0.9517143628661825</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9384187634236172</v>
+        <v>0.9368896531856253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.961769181433579</v>
+        <v>0.9618087051860967</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2256</v>
@@ -1505,19 +1505,19 @@
         <v>1926284</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1908814</v>
+        <v>1910570</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1939652</v>
+        <v>1939346</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9667876936977067</v>
+        <v>0.9667876936977069</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.958019836893541</v>
+        <v>0.9589012518709813</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9734972029341235</v>
+        <v>0.9733437049761756</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>6274</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3176</v>
+        <v>2860</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11548</v>
+        <v>11510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01104675794329429</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005591524354565838</v>
+        <v>0.005034913244078772</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02033152291758932</v>
+        <v>0.02026559226462724</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -1630,19 +1630,19 @@
         <v>40495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>30727</v>
+        <v>31183</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50049</v>
+        <v>51218</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04873892581703204</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03698319704634832</v>
+        <v>0.03753109634715707</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06023880293205404</v>
+        <v>0.06164495911967814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>80</v>
@@ -1651,19 +1651,19 @@
         <v>46769</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37608</v>
+        <v>37628</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58079</v>
+        <v>59466</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03343468592080865</v>
+        <v>0.03343468592080864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02688566901864174</v>
+        <v>0.02689984663571978</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04151990616305141</v>
+        <v>0.04251204931821932</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>561690</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>556416</v>
+        <v>556454</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>564788</v>
+        <v>565104</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9889532420567059</v>
+        <v>0.9889532420567057</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9796684770824107</v>
+        <v>0.9797344077353729</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.994408475645434</v>
+        <v>0.9949650867559213</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1219</v>
@@ -1701,19 +1701,19 @@
         <v>790355</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>780801</v>
+        <v>779632</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>800123</v>
+        <v>799667</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9512610741829681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9397611970679461</v>
+        <v>0.938355040880322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9630168029536519</v>
+        <v>0.9624689036528431</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1757</v>
@@ -1722,19 +1722,19 @@
         <v>1352045</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1340735</v>
+        <v>1339348</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1361206</v>
+        <v>1361186</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9665653140791913</v>
+        <v>0.9665653140791911</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9584800938369487</v>
+        <v>0.9574879506817807</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9731143309813584</v>
+        <v>0.9731001533642804</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>6802</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1975</v>
+        <v>1889</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19230</v>
+        <v>20371</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02867349940927754</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008327041169878601</v>
+        <v>0.007962465449916528</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08106012736213061</v>
+        <v>0.08586887486316414</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -1847,19 +1847,19 @@
         <v>31238</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22730</v>
+        <v>22870</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42281</v>
+        <v>42911</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03702961426875841</v>
+        <v>0.03702961426875843</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02694400365639627</v>
+        <v>0.02710955886860996</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05012039122443112</v>
+        <v>0.05086732098538103</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>53</v>
@@ -1868,19 +1868,19 @@
         <v>38040</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27707</v>
+        <v>28340</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54486</v>
+        <v>53547</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.035195548252235</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02563496724903355</v>
+        <v>0.0262211590158506</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05041126613472008</v>
+        <v>0.04954303175430836</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>230426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217998</v>
+        <v>216857</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235253</v>
+        <v>235339</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9713265005907225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9189398726378694</v>
+        <v>0.9141311251368359</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9916729588301214</v>
+        <v>0.9920375345500835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1109</v>
@@ -1918,19 +1918,19 @@
         <v>812358</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>801315</v>
+        <v>800685</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>820866</v>
+        <v>820726</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9629703857312415</v>
+        <v>0.9629703857312418</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9498796087755689</v>
+        <v>0.9491326790146185</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9730559963436037</v>
+        <v>0.9728904411313897</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1217</v>
@@ -1939,19 +1939,19 @@
         <v>1042784</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1026338</v>
+        <v>1027277</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1053117</v>
+        <v>1052484</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.964804451747765</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9495887338652803</v>
+        <v>0.9504569682456907</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9743650327509672</v>
+        <v>0.9737788409841492</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>78351</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61820</v>
+        <v>61398</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98846</v>
+        <v>98314</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02275994580942168</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01795800190377856</v>
+        <v>0.01783555112396304</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02871356732436592</v>
+        <v>0.02855904231927428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>294</v>
@@ -2064,19 +2064,19 @@
         <v>185714</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>164414</v>
+        <v>166168</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>209197</v>
+        <v>208727</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.05110290959087606</v>
+        <v>0.05110290959087605</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04524184247499027</v>
+        <v>0.04572452162477401</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0575649356137233</v>
+        <v>0.05743562594001395</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>381</v>
@@ -2085,19 +2085,19 @@
         <v>264064</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>238329</v>
+        <v>237060</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>292471</v>
+        <v>292949</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03731519581895026</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03367854348716844</v>
+        <v>0.0334992160642778</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04132939993365926</v>
+        <v>0.04139696607627</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3364125</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3343630</v>
+        <v>3344162</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3380656</v>
+        <v>3381078</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9772400541905785</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.971286432675634</v>
+        <v>0.9714409576807257</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9820419980962212</v>
+        <v>0.9821644488760369</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4948</v>
@@ -2135,19 +2135,19 @@
         <v>3448398</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3424915</v>
+        <v>3425385</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3469698</v>
+        <v>3467944</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9488970904091238</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9424350643862764</v>
+        <v>0.9425643740599862</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9547581575250096</v>
+        <v>0.9542754783752261</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8161</v>
@@ -2156,19 +2156,19 @@
         <v>6812524</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6784117</v>
+        <v>6783639</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6838259</v>
+        <v>6839528</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9626848041810497</v>
+        <v>0.9626848041810498</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9586706000663409</v>
+        <v>0.95860303392373</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9663214565128317</v>
+        <v>0.9665007839357223</v>
       </c>
     </row>
     <row r="24">
